--- a/compiler/lib/tcamTable2.xlsx
+++ b/compiler/lib/tcamTable2.xlsx
@@ -9,6 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t xml:space="preserve">TCAM Table 2 – 4(rows) * 4(columns)</t>
   </si>
@@ -172,7 +174,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,8 +231,8 @@
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,13 +277,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>1</v>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -297,4 +299,266 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>